--- a/November 13th Event List.xlsx
+++ b/November 13th Event List.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="37">
   <si>
     <t>Names</t>
   </si>
@@ -40,9 +40,6 @@
     <t>R.Prathish Kumar</t>
   </si>
   <si>
-    <t>28-05-2015</t>
-  </si>
-  <si>
     <t>Male</t>
   </si>
   <si>
@@ -76,9 +73,6 @@
     <t>B.Pranesh Krishnan</t>
   </si>
   <si>
-    <t>25-07-2012</t>
-  </si>
-  <si>
     <t>31 KG</t>
   </si>
   <si>
@@ -88,13 +82,10 @@
     <t>V.Dhanvanth</t>
   </si>
   <si>
-    <t>22/03/2012</t>
-  </si>
-  <si>
     <t>Green</t>
   </si>
   <si>
-    <t>S.Lithiks sri</t>
+    <t>S.Lithikaa sri</t>
   </si>
   <si>
     <t>35 KG</t>
@@ -103,13 +94,10 @@
     <t>R.Abshiek</t>
   </si>
   <si>
-    <t>16/06/2012</t>
-  </si>
-  <si>
     <t>21 KG</t>
   </si>
   <si>
-    <t>Abinandan</t>
+    <t>C.P.Abinandan</t>
   </si>
   <si>
     <t>65 KG</t>
@@ -122,9 +110,6 @@
   </si>
   <si>
     <t>J.Jeevan</t>
-  </si>
-  <si>
-    <t>14/05/2009</t>
   </si>
   <si>
     <t>33 KG</t>
@@ -146,11 +131,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="[$-409]d\-mmm\-yyyy;@"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -171,7 +157,104 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -185,6 +268,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -192,39 +276,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -232,21 +286,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -259,61 +298,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -328,181 +314,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -540,23 +520,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -595,16 +560,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -626,6 +597,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -639,15 +619,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -657,134 +637,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -794,17 +774,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1166,253 +1140,253 @@
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="3">
+        <v>42152</v>
+      </c>
+      <c r="C2" s="4">
+        <v>6</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="3">
-        <v>6</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="3">
+        <v>42125</v>
+      </c>
+      <c r="C3" s="4">
+        <v>7</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="5">
-        <v>42009</v>
-      </c>
-      <c r="C3" s="3">
-        <v>7</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="G3" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="3">
+        <v>41977</v>
+      </c>
+      <c r="C4" s="4">
+        <v>7</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="5">
-        <v>41741</v>
-      </c>
-      <c r="C4" s="3">
-        <v>7</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>16</v>
+      <c r="F4" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="3">
+        <v>41115</v>
+      </c>
+      <c r="C5" s="4">
+        <v>10</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="F5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="3">
-        <v>10</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>22</v>
-      </c>
       <c r="G5" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="3">
+        <v>21</v>
+      </c>
+      <c r="B6" s="3">
+        <v>40990</v>
+      </c>
+      <c r="C6" s="4">
         <v>10</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>25</v>
+      <c r="D6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="5">
-        <v>40827</v>
-      </c>
-      <c r="C7" s="3">
+        <v>23</v>
+      </c>
+      <c r="B7" s="3">
+        <v>40857</v>
+      </c>
+      <c r="C7" s="4">
         <v>10</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>25</v>
+      <c r="D7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="3">
+        <v>25</v>
+      </c>
+      <c r="B8" s="3">
+        <v>41076</v>
+      </c>
+      <c r="C8" s="4">
         <v>11</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>16</v>
+      <c r="D8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="5">
-        <v>40397</v>
-      </c>
-      <c r="C9" s="3">
+        <v>27</v>
+      </c>
+      <c r="B9" s="3">
+        <v>40367</v>
+      </c>
+      <c r="C9" s="4">
         <v>12</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>16</v>
+      <c r="D9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" s="5">
-        <v>40300</v>
-      </c>
-      <c r="C10" s="3">
+        <v>29</v>
+      </c>
+      <c r="B10" s="3">
+        <v>40214</v>
+      </c>
+      <c r="C10" s="4">
         <v>12</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="3" t="s">
+      <c r="D10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>36</v>
+      <c r="A11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="3">
+        <v>40312</v>
       </c>
       <c r="C11" s="4">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" s="5">
-        <v>39459</v>
-      </c>
-      <c r="C12" s="3">
-        <v>14</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
+      </c>
+      <c r="B12" s="3">
+        <v>39783</v>
+      </c>
+      <c r="C12" s="4">
+        <v>13</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
